--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dais2\Dropbox (Aalto)\CVXfit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dais2\Dropbox (Aalto)\GitHub\pyStoNED-Tutorials\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01828A26-DE56-4782-9610-E7C76426C049}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3D15A-F7D9-468E-957A-7EBC114B5633}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF37BD9A-F54D-46D3-BEB7-9F025DA3AFDA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>OPEX</t>
   </si>
@@ -52,174 +52,6 @@
   </si>
   <si>
     <t>PerUndGr</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.41</t>
   </si>
 </sst>
 </file>
@@ -574,7 +406,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,8 +453,8 @@
       <c r="F2">
         <v>4933</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -644,8 +476,8 @@
       <c r="F3">
         <v>6149</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="G3">
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -667,8 +499,8 @@
       <c r="F4">
         <v>6098</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="G4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -690,8 +522,8 @@
       <c r="F5">
         <v>55226</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="G5">
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -713,8 +545,8 @@
       <c r="F6">
         <v>1670</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
+      <c r="G6">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -736,8 +568,8 @@
       <c r="F7">
         <v>22949</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="G7">
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -759,8 +591,8 @@
       <c r="F8">
         <v>3599</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
+      <c r="G8">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -782,8 +614,8 @@
       <c r="F9">
         <v>11081</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
+      <c r="G9">
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -805,8 +637,8 @@
       <c r="F10">
         <v>377</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -828,8 +660,8 @@
       <c r="F11">
         <v>10134</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
+      <c r="G11">
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -851,8 +683,8 @@
       <c r="F12">
         <v>167239</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
+      <c r="G12">
+        <v>0.61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -874,8 +706,8 @@
       <c r="F13">
         <v>420473</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
+      <c r="G13">
+        <v>0.23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -897,8 +729,8 @@
       <c r="F14">
         <v>7176</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
+      <c r="G14">
+        <v>0.61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -920,8 +752,8 @@
       <c r="F15">
         <v>8614</v>
       </c>
-      <c r="G15" t="s">
-        <v>18</v>
+      <c r="G15">
+        <v>0.46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -943,8 +775,8 @@
       <c r="F16">
         <v>334757</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
+      <c r="G16">
+        <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -966,8 +798,8 @@
       <c r="F17">
         <v>14953</v>
       </c>
-      <c r="G17" t="s">
-        <v>20</v>
+      <c r="G17">
+        <v>0.19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -989,8 +821,8 @@
       <c r="F18">
         <v>3156</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
+      <c r="G18">
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1012,8 +844,8 @@
       <c r="F19">
         <v>4296</v>
       </c>
-      <c r="G19" t="s">
-        <v>22</v>
+      <c r="G19">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1035,8 +867,8 @@
       <c r="F20">
         <v>6044</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
+      <c r="G20">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1058,8 +890,8 @@
       <c r="F21">
         <v>23361</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
+      <c r="G21">
+        <v>0.31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1081,8 +913,8 @@
       <c r="F22">
         <v>6071</v>
       </c>
-      <c r="G22" t="s">
-        <v>22</v>
+      <c r="G22">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1104,8 +936,8 @@
       <c r="F23">
         <v>14936</v>
       </c>
-      <c r="G23" t="s">
-        <v>25</v>
+      <c r="G23">
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1127,8 +959,8 @@
       <c r="F24">
         <v>772</v>
       </c>
-      <c r="G24" t="s">
-        <v>26</v>
+      <c r="G24">
+        <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1150,8 +982,8 @@
       <c r="F25">
         <v>44594</v>
       </c>
-      <c r="G25" t="s">
-        <v>27</v>
+      <c r="G25">
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1173,8 +1005,8 @@
       <c r="F26">
         <v>3391</v>
       </c>
-      <c r="G26" t="s">
-        <v>22</v>
+      <c r="G26">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1196,8 +1028,8 @@
       <c r="F27">
         <v>6806</v>
       </c>
-      <c r="G27" t="s">
-        <v>28</v>
+      <c r="G27">
+        <v>0.37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1219,8 +1051,8 @@
       <c r="F28">
         <v>5165</v>
       </c>
-      <c r="G28" t="s">
-        <v>29</v>
+      <c r="G28">
+        <v>0.24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1242,8 +1074,8 @@
       <c r="F29">
         <v>95367</v>
       </c>
-      <c r="G29" t="s">
-        <v>30</v>
+      <c r="G29">
+        <v>0.09</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1265,8 +1097,8 @@
       <c r="F30">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
-        <v>31</v>
+      <c r="G30">
+        <v>0.44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1288,8 +1120,8 @@
       <c r="F31">
         <v>14646</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
+      <c r="G31">
+        <v>0.71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1311,8 +1143,8 @@
       <c r="F32">
         <v>5069</v>
       </c>
-      <c r="G32" t="s">
-        <v>33</v>
+      <c r="G32">
+        <v>0.39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1334,8 +1166,8 @@
       <c r="F33">
         <v>58</v>
       </c>
-      <c r="G33" t="s">
-        <v>24</v>
+      <c r="G33">
+        <v>0.31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1357,8 +1189,8 @@
       <c r="F34">
         <v>20325</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
+      <c r="G34">
+        <v>0.47</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1380,8 +1212,8 @@
       <c r="F35">
         <v>16878</v>
       </c>
-      <c r="G35" t="s">
-        <v>35</v>
+      <c r="G35">
+        <v>0.73</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1403,8 +1235,8 @@
       <c r="F36">
         <v>8566</v>
       </c>
-      <c r="G36" t="s">
-        <v>36</v>
+      <c r="G36">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1426,8 +1258,8 @@
       <c r="F37">
         <v>12231</v>
       </c>
-      <c r="G37" t="s">
-        <v>37</v>
+      <c r="G37">
+        <v>0.12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1449,8 +1281,8 @@
       <c r="F38">
         <v>15217</v>
       </c>
-      <c r="G38" t="s">
-        <v>26</v>
+      <c r="G38">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1472,8 +1304,8 @@
       <c r="F39">
         <v>5711</v>
       </c>
-      <c r="G39" t="s">
-        <v>38</v>
+      <c r="G39">
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1495,8 +1327,8 @@
       <c r="F40">
         <v>2968</v>
       </c>
-      <c r="G40" t="s">
-        <v>36</v>
+      <c r="G40">
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1518,8 +1350,8 @@
       <c r="F41">
         <v>42952</v>
       </c>
-      <c r="G41" t="s">
-        <v>39</v>
+      <c r="G41">
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1541,8 +1373,8 @@
       <c r="F42">
         <v>48140</v>
       </c>
-      <c r="G42" t="s">
-        <v>40</v>
+      <c r="G42">
+        <v>0.66</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1564,8 +1396,8 @@
       <c r="F43">
         <v>2227</v>
       </c>
-      <c r="G43" t="s">
-        <v>41</v>
+      <c r="G43">
+        <v>0.18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1587,8 +1419,8 @@
       <c r="F44">
         <v>98650</v>
       </c>
-      <c r="G44" t="s">
-        <v>10</v>
+      <c r="G44">
+        <v>0.13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1610,8 +1442,8 @@
       <c r="F45">
         <v>6022</v>
       </c>
-      <c r="G45" t="s">
-        <v>42</v>
+      <c r="G45">
+        <v>0.36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1633,8 +1465,8 @@
       <c r="F46">
         <v>7193</v>
       </c>
-      <c r="G46" t="s">
-        <v>39</v>
+      <c r="G46">
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1656,8 +1488,8 @@
       <c r="F47">
         <v>3342</v>
       </c>
-      <c r="G47" t="s">
-        <v>43</v>
+      <c r="G47">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1679,8 +1511,8 @@
       <c r="F48">
         <v>43911</v>
       </c>
-      <c r="G48" t="s">
-        <v>44</v>
+      <c r="G48">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1702,8 +1534,8 @@
       <c r="F49">
         <v>1752</v>
       </c>
-      <c r="G49" t="s">
-        <v>11</v>
+      <c r="G49">
+        <v>0.03</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1725,8 +1557,8 @@
       <c r="F50">
         <v>26265</v>
       </c>
-      <c r="G50" t="s">
-        <v>36</v>
+      <c r="G50">
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1748,8 +1580,8 @@
       <c r="F51">
         <v>75870</v>
       </c>
-      <c r="G51" t="s">
-        <v>45</v>
+      <c r="G51">
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1771,8 +1603,8 @@
       <c r="F52">
         <v>2211</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
+      <c r="G52">
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1794,8 +1626,8 @@
       <c r="F53">
         <v>12945</v>
       </c>
-      <c r="G53" t="s">
-        <v>30</v>
+      <c r="G53">
+        <v>0.09</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1817,8 +1649,8 @@
       <c r="F54">
         <v>5146</v>
       </c>
-      <c r="G54" t="s">
-        <v>40</v>
+      <c r="G54">
+        <v>0.66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1840,8 +1672,8 @@
       <c r="F55">
         <v>21072</v>
       </c>
-      <c r="G55" t="s">
-        <v>28</v>
+      <c r="G55">
+        <v>0.37</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1863,8 +1695,8 @@
       <c r="F56">
         <v>4513</v>
       </c>
-      <c r="G56" t="s">
-        <v>13</v>
+      <c r="G56">
+        <v>0.16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1886,8 +1718,8 @@
       <c r="F57">
         <v>80702</v>
       </c>
-      <c r="G57" t="s">
-        <v>47</v>
+      <c r="G57">
+        <v>0.7</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -1909,8 +1741,8 @@
       <c r="F58">
         <v>25994</v>
       </c>
-      <c r="G58" t="s">
-        <v>10</v>
+      <c r="G58">
+        <v>0.13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -1932,8 +1764,8 @@
       <c r="F59">
         <v>5394</v>
       </c>
-      <c r="G59" t="s">
-        <v>20</v>
+      <c r="G59">
+        <v>0.19</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1955,8 +1787,8 @@
       <c r="F60">
         <v>9015</v>
       </c>
-      <c r="G60" t="s">
-        <v>48</v>
+      <c r="G60">
+        <v>0.26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1978,8 +1810,8 @@
       <c r="F61">
         <v>9930</v>
       </c>
-      <c r="G61" t="s">
-        <v>29</v>
+      <c r="G61">
+        <v>0.24</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2001,8 +1833,8 @@
       <c r="F62">
         <v>1467</v>
       </c>
-      <c r="G62" t="s">
-        <v>49</v>
+      <c r="G62">
+        <v>0.22</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2024,8 +1856,8 @@
       <c r="F63">
         <v>84445</v>
       </c>
-      <c r="G63" t="s">
-        <v>43</v>
+      <c r="G63">
+        <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2047,8 +1879,8 @@
       <c r="F64">
         <v>47572</v>
       </c>
-      <c r="G64" t="s">
-        <v>50</v>
+      <c r="G64">
+        <v>0.53</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2070,8 +1902,8 @@
       <c r="F65">
         <v>30801</v>
       </c>
-      <c r="G65" t="s">
-        <v>8</v>
+      <c r="G65">
+        <v>0.21</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2093,8 +1925,8 @@
       <c r="F66">
         <v>7812</v>
       </c>
-      <c r="G66" t="s">
-        <v>51</v>
+      <c r="G66">
+        <v>0.89</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2116,8 +1948,8 @@
       <c r="F67">
         <v>4272</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
+      <c r="G67">
+        <v>0.02</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2139,8 +1971,8 @@
       <c r="F68">
         <v>19455</v>
       </c>
-      <c r="G68" t="s">
-        <v>53</v>
+      <c r="G68">
+        <v>0.52</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2162,8 +1994,8 @@
       <c r="F69">
         <v>26798</v>
       </c>
-      <c r="G69" t="s">
-        <v>49</v>
+      <c r="G69">
+        <v>0.22</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2185,8 +2017,8 @@
       <c r="F70">
         <v>21662</v>
       </c>
-      <c r="G70" t="s">
-        <v>54</v>
+      <c r="G70">
+        <v>0.83</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2208,8 +2040,8 @@
       <c r="F71">
         <v>22313</v>
       </c>
-      <c r="G71" t="s">
-        <v>55</v>
+      <c r="G71">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2231,8 +2063,8 @@
       <c r="F72">
         <v>106336</v>
       </c>
-      <c r="G72" t="s">
-        <v>56</v>
+      <c r="G72">
+        <v>0.08</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2254,8 +2086,8 @@
       <c r="F73">
         <v>19899</v>
       </c>
-      <c r="G73" t="s">
-        <v>57</v>
+      <c r="G73">
+        <v>0.74</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2277,8 +2109,8 @@
       <c r="F74">
         <v>124661</v>
       </c>
-      <c r="G74" t="s">
-        <v>58</v>
+      <c r="G74">
+        <v>0.59</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,8 +2132,8 @@
       <c r="F75">
         <v>2611</v>
       </c>
-      <c r="G75" t="s">
-        <v>56</v>
+      <c r="G75">
+        <v>0.08</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2323,8 +2155,8 @@
       <c r="F76">
         <v>10537</v>
       </c>
-      <c r="G76" t="s">
-        <v>59</v>
+      <c r="G76">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2346,8 +2178,8 @@
       <c r="F77">
         <v>13391</v>
       </c>
-      <c r="G77" t="s">
-        <v>30</v>
+      <c r="G77">
+        <v>0.09</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2369,8 +2201,8 @@
       <c r="F78">
         <v>67456</v>
       </c>
-      <c r="G78" t="s">
-        <v>60</v>
+      <c r="G78">
+        <v>0.62</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2392,8 +2224,8 @@
       <c r="F79">
         <v>1207</v>
       </c>
-      <c r="G79" t="s">
-        <v>61</v>
+      <c r="G79">
+        <v>0.17</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2415,8 +2247,8 @@
       <c r="F80">
         <v>60239</v>
       </c>
-      <c r="G80" t="s">
-        <v>62</v>
+      <c r="G80">
+        <v>0.41</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2438,8 +2270,8 @@
       <c r="F81">
         <v>23446</v>
       </c>
-      <c r="G81" t="s">
-        <v>36</v>
+      <c r="G81">
+        <v>0.2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2461,8 +2293,8 @@
       <c r="F82">
         <v>11654</v>
       </c>
-      <c r="G82" t="s">
-        <v>33</v>
+      <c r="G82">
+        <v>0.39</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2484,8 +2316,8 @@
       <c r="F83">
         <v>93769</v>
       </c>
-      <c r="G83" t="s">
-        <v>9</v>
+      <c r="G83">
+        <v>0.75</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2507,8 +2339,8 @@
       <c r="F84">
         <v>17129</v>
       </c>
-      <c r="G84" t="s">
-        <v>13</v>
+      <c r="G84">
+        <v>0.16</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2530,8 +2362,8 @@
       <c r="F85">
         <v>378089</v>
       </c>
-      <c r="G85" t="s">
-        <v>41</v>
+      <c r="G85">
+        <v>0.18</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2553,8 +2385,8 @@
       <c r="F86">
         <v>19059</v>
       </c>
-      <c r="G86" t="s">
-        <v>13</v>
+      <c r="G86">
+        <v>0.16</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2576,8 +2408,8 @@
       <c r="F87">
         <v>2078</v>
       </c>
-      <c r="G87" t="s">
-        <v>23</v>
+      <c r="G87">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2599,8 +2431,8 @@
       <c r="F88">
         <v>2008</v>
       </c>
-      <c r="G88" t="s">
-        <v>21</v>
+      <c r="G88">
+        <v>0.32</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2622,8 +2454,8 @@
       <c r="F89">
         <v>1364</v>
       </c>
-      <c r="G89" t="s">
-        <v>46</v>
+      <c r="G89">
+        <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2645,8 +2477,8 @@
       <c r="F90">
         <v>9084</v>
       </c>
-      <c r="G90" t="s">
-        <v>58</v>
+      <c r="G90">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
